--- a/src/day.2.xlsx
+++ b/src/day.2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbush/Documents/Source/advent-of-code-2021/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21043BFD-D95D-7244-97C9-B1A324427747}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A617DF-34B4-3C43-B2AF-4CC3EE885DA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15520" yWindow="-28340" windowWidth="34400" windowHeight="28340" xr2:uid="{CCC05499-81E1-5146-82F7-68C6FD4DBB48}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Day 2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -225,10 +225,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -549,7 +549,7 @@
   <dimension ref="A1:O1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,19 +568,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -634,7 +634,7 @@
         <f>IF(C3="up",-D3,0)+IF(C3="down",D3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f>F1002*G1002</f>
         <v>1670340</v>
       </c>
@@ -650,7 +650,7 @@
         <f>IF(C3="up",-D3,0)+IF(C3="down",D3,0)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <f>K1002*L1002</f>
         <v>1954293920</v>
       </c>
